--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>388612.6682038542</v>
+        <v>386066.8631251535</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9961102.301580645</v>
+        <v>9961102.301580647</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
     </row>
     <row r="9">
@@ -1212,73 +1212,73 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,52 +1306,52 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>323.6959619980815</v>
@@ -1376,13 +1376,13 @@
         <v>313.1061118477569</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>261.3004017861684</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H11" t="n">
         <v>253.0308346143945</v>
@@ -1436,7 +1436,7 @@
         <v>328.154170905543</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.7958543599341</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>103.8441182500052</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861022</v>
+        <v>50.52679935684644</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
-        <v>29.25600601213884</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>323.6959619980815</v>
       </c>
       <c r="D14" t="n">
-        <v>313.1061118477569</v>
+        <v>272.3126390532819</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687854</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>369.3447958805274</v>
@@ -1658,16 +1658,16 @@
         <v>67.61083201524985</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
         <v>209.418242185976</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W14" t="n">
-        <v>9.734378945792692</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X14" t="n">
         <v>328.154170905543</v>
@@ -1774,7 +1774,7 @@
         <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500052</v>
+        <v>22.50177138095921</v>
       </c>
       <c r="G16" t="n">
         <v>124.4488784861022</v>
@@ -1783,7 +1783,7 @@
         <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.77549063691212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712134</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>148.1920955585159</v>
       </c>
       <c r="T16" t="n">
-        <v>104.0499403739877</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U16" t="n">
         <v>244.6349084326869</v>
@@ -1847,7 +1847,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0.7833608136873044</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
@@ -1856,7 +1856,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>116.1918560674072</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
@@ -2002,25 +2002,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2081,7 +2081,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>175.8363715494212</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
         <v>307.7079050020904</v>
@@ -2090,13 +2090,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>217.4395255201253</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2239,25 +2239,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2321,16 +2321,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2378,10 +2378,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>337.6647449244905</v>
+        <v>337.6647449244904</v>
       </c>
       <c r="C26" t="n">
-        <v>320.2037950320175</v>
+        <v>320.2037950320174</v>
       </c>
       <c r="D26" t="n">
-        <v>309.6139448816929</v>
+        <v>309.6139448816928</v>
       </c>
       <c r="E26" t="n">
-        <v>336.8612733332717</v>
+        <v>336.8612733332716</v>
       </c>
       <c r="F26" t="n">
-        <v>361.8069490027214</v>
+        <v>361.8069490027213</v>
       </c>
       <c r="G26" t="n">
-        <v>365.8526289144634</v>
+        <v>365.8526289144633</v>
       </c>
       <c r="H26" t="n">
-        <v>249.5386676483304</v>
+        <v>249.5386676483303</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.11866504918574</v>
+        <v>64.11866504918571</v>
       </c>
       <c r="T26" t="n">
-        <v>158.8488734006301</v>
+        <v>158.84887340063</v>
       </c>
       <c r="U26" t="n">
-        <v>205.9260752199119</v>
+        <v>205.9260752199118</v>
       </c>
       <c r="V26" t="n">
         <v>282.6831617311448</v>
@@ -2618,10 +2618,10 @@
         <v>304.1718719784229</v>
       </c>
       <c r="X26" t="n">
-        <v>324.662003939479</v>
+        <v>324.6620039394789</v>
       </c>
       <c r="Y26" t="n">
-        <v>341.1688419170635</v>
+        <v>341.1688419170634</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>103.5463762792222</v>
       </c>
       <c r="E28" t="n">
-        <v>101.3648659075791</v>
+        <v>101.364865907579</v>
       </c>
       <c r="F28" t="n">
         <v>100.3519512839411</v>
@@ -2728,10 +2728,10 @@
         <v>120.9567115200381</v>
       </c>
       <c r="H28" t="n">
-        <v>99.68591817533067</v>
+        <v>99.68591817533064</v>
       </c>
       <c r="I28" t="n">
-        <v>5.841808109221009</v>
+        <v>5.841808109221853</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.86305593105723</v>
+        <v>43.8630559310572</v>
       </c>
       <c r="S28" t="n">
         <v>144.6999285924518</v>
@@ -2767,7 +2767,7 @@
         <v>174.4798525371791</v>
       </c>
       <c r="U28" t="n">
-        <v>241.1427414666228</v>
+        <v>241.1427414666227</v>
       </c>
       <c r="V28" t="n">
         <v>207.0685465848379</v>
@@ -2779,7 +2779,7 @@
         <v>180.640558650047</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.5155566131047</v>
+        <v>173.5155566131046</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>337.6647449244905</v>
+        <v>337.6647449244904</v>
       </c>
       <c r="C29" t="n">
-        <v>320.2037950320175</v>
+        <v>320.2037950320174</v>
       </c>
       <c r="D29" t="n">
-        <v>309.6139448816929</v>
+        <v>309.6139448816928</v>
       </c>
       <c r="E29" t="n">
-        <v>336.8612733332717</v>
+        <v>336.8612733332716</v>
       </c>
       <c r="F29" t="n">
-        <v>361.8069490027214</v>
+        <v>361.8069490027213</v>
       </c>
       <c r="G29" t="n">
-        <v>365.8526289144634</v>
+        <v>365.8526289144633</v>
       </c>
       <c r="H29" t="n">
         <v>249.5386676483303</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.11866504918574</v>
+        <v>64.11866504918571</v>
       </c>
       <c r="T29" t="n">
-        <v>158.8488734006301</v>
+        <v>158.84887340063</v>
       </c>
       <c r="U29" t="n">
-        <v>205.9260752199119</v>
+        <v>205.9260752199118</v>
       </c>
       <c r="V29" t="n">
         <v>282.6831617311448</v>
@@ -2855,10 +2855,10 @@
         <v>304.1718719784229</v>
       </c>
       <c r="X29" t="n">
-        <v>324.662003939479</v>
+        <v>324.6620039394789</v>
       </c>
       <c r="Y29" t="n">
-        <v>341.1688419170635</v>
+        <v>341.1688419170634</v>
       </c>
     </row>
     <row r="30">
@@ -2956,19 +2956,19 @@
         <v>103.5463762792222</v>
       </c>
       <c r="E31" t="n">
-        <v>101.3648659075791</v>
+        <v>101.364865907579</v>
       </c>
       <c r="F31" t="n">
         <v>100.3519512839411</v>
       </c>
       <c r="G31" t="n">
-        <v>120.9567115200381</v>
+        <v>75.51519595841255</v>
       </c>
       <c r="H31" t="n">
-        <v>99.68591817533067</v>
+        <v>99.68591817533064</v>
       </c>
       <c r="I31" t="n">
-        <v>51.283323670848</v>
+        <v>51.28332367084798</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.86305593105723</v>
+        <v>43.8630559310572</v>
       </c>
       <c r="S31" t="n">
-        <v>99.25841303082557</v>
+        <v>144.6999285924518</v>
       </c>
       <c r="T31" t="n">
         <v>174.4798525371791</v>
       </c>
       <c r="U31" t="n">
-        <v>241.1427414666228</v>
+        <v>241.1427414666227</v>
       </c>
       <c r="V31" t="n">
         <v>207.0685465848379</v>
@@ -3016,7 +3016,7 @@
         <v>180.640558650047</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.5155566131047</v>
+        <v>173.5155566131046</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4805,16 +4805,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
         <v>20.97193951221988</v>
@@ -4835,19 +4835,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4884,19 +4884,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="O9" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O9" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D10" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,43 +4969,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>11.71520265365005</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>18.52248793794438</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
-        <v>25.3297732222387</v>
+        <v>25.32977322223879</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S10" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V10" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1309.124589926697</v>
+        <v>1602.348587267466</v>
       </c>
       <c r="C11" t="n">
-        <v>982.158971746817</v>
+        <v>1275.382969087585</v>
       </c>
       <c r="D11" t="n">
-        <v>665.8901719005978</v>
+        <v>959.1141692413662</v>
       </c>
       <c r="E11" t="n">
-        <v>322.0988180628849</v>
+        <v>695.174369457357</v>
       </c>
       <c r="F11" t="n">
-        <v>322.0988180628849</v>
+        <v>695.174369457357</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628849</v>
+        <v>322.0988180628848</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218339</v>
@@ -5039,43 +5039,43 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
         <v>3257.312051896796</v>
       </c>
       <c r="T11" t="n">
-        <v>3093.33120304155</v>
+        <v>3093.331203041549</v>
       </c>
       <c r="U11" t="n">
         <v>2881.797625075917</v>
       </c>
       <c r="V11" t="n">
-        <v>2592.731636492878</v>
+        <v>2592.731636492877</v>
       </c>
       <c r="W11" t="n">
         <v>2281.959879983295</v>
@@ -5084,7 +5084,7 @@
         <v>1950.491020482746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1653.727531230288</v>
+        <v>1602.348587267466</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>667.6378438997365</v>
+        <v>667.6378438997368</v>
       </c>
       <c r="C13" t="n">
-        <v>540.6985597323609</v>
+        <v>540.6985597323612</v>
       </c>
       <c r="D13" t="n">
-        <v>432.5788190805565</v>
+        <v>432.5788190805568</v>
       </c>
       <c r="E13" t="n">
-        <v>326.6626242586947</v>
+        <v>326.662624258695</v>
       </c>
       <c r="F13" t="n">
-        <v>221.7695755213156</v>
+        <v>221.7695755213159</v>
       </c>
       <c r="G13" t="n">
-        <v>96.06363765656606</v>
+        <v>170.7324044537943</v>
       </c>
       <c r="H13" t="n">
-        <v>96.06363765656606</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218339</v>
@@ -5200,31 +5200,31 @@
         <v>152.7959093543157</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783885</v>
+        <v>397.9442527783888</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020813</v>
+        <v>755.6652117020816</v>
       </c>
       <c r="M13" t="n">
-        <v>1140.983417776827</v>
+        <v>1140.983417776828</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.552954957888</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262354</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q13" t="n">
         <v>2256.583831890066</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S13" t="n">
-        <v>2059.061287995482</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T13" t="n">
         <v>1879.29157132554</v>
@@ -5239,10 +5239,10 @@
         <v>1172.07774248993</v>
       </c>
       <c r="X13" t="n">
-        <v>986.0850903524437</v>
+        <v>986.0850903524439</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.2894099694449</v>
+        <v>807.2894099694452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2051.994404767478</v>
+        <v>1298.008516825461</v>
       </c>
       <c r="C14" t="n">
-        <v>1725.028786587597</v>
+        <v>971.0428986455809</v>
       </c>
       <c r="D14" t="n">
-        <v>1408.759986741378</v>
+        <v>695.9796268745888</v>
       </c>
       <c r="E14" t="n">
-        <v>1064.968632903665</v>
+        <v>695.9796268745888</v>
       </c>
       <c r="F14" t="n">
-        <v>695.9796268745887</v>
+        <v>695.9796268745888</v>
       </c>
       <c r="G14" t="n">
         <v>322.9040754801166</v>
@@ -5288,40 +5288,40 @@
         <v>1574.58199641862</v>
       </c>
       <c r="N14" t="n">
-        <v>2160.818426921755</v>
+        <v>2121.360813477402</v>
       </c>
       <c r="O14" t="n">
-        <v>2663.790897801092</v>
+        <v>2663.790897801093</v>
       </c>
       <c r="P14" t="n">
-        <v>3058.56526415827</v>
+        <v>3058.565264158271</v>
       </c>
       <c r="Q14" t="n">
-        <v>3306.851625913952</v>
+        <v>3306.851625913953</v>
       </c>
       <c r="R14" t="n">
         <v>3365.868692470755</v>
       </c>
       <c r="S14" t="n">
-        <v>3297.574922758381</v>
+        <v>3297.574922758382</v>
       </c>
       <c r="T14" t="n">
-        <v>3297.574922758381</v>
+        <v>3133.594073903135</v>
       </c>
       <c r="U14" t="n">
-        <v>3086.041344792749</v>
+        <v>2922.060495937503</v>
       </c>
       <c r="V14" t="n">
-        <v>3086.041344792749</v>
+        <v>2632.994507354463</v>
       </c>
       <c r="W14" t="n">
-        <v>3076.208638786897</v>
+        <v>2322.22275084488</v>
       </c>
       <c r="X14" t="n">
-        <v>2744.739779286348</v>
+        <v>1990.753891344332</v>
       </c>
       <c r="Y14" t="n">
-        <v>2396.597346071068</v>
+        <v>1642.611458129052</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>160.9946433400324</v>
       </c>
       <c r="K15" t="n">
-        <v>399.2588423203795</v>
+        <v>399.2588423203798</v>
       </c>
       <c r="L15" t="n">
-        <v>765.9570026330448</v>
+        <v>765.957002633045</v>
       </c>
       <c r="M15" t="n">
         <v>1213.233327855361</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.1118681141966</v>
+        <v>716.2766597989093</v>
       </c>
       <c r="C16" t="n">
-        <v>616.172583946821</v>
+        <v>589.3373756315339</v>
       </c>
       <c r="D16" t="n">
-        <v>508.0528432950166</v>
+        <v>481.2176349797298</v>
       </c>
       <c r="E16" t="n">
-        <v>402.1366484731548</v>
+        <v>375.301440157868</v>
       </c>
       <c r="F16" t="n">
-        <v>297.2435997357757</v>
+        <v>352.5723781568991</v>
       </c>
       <c r="G16" t="n">
-        <v>171.537661871026</v>
+        <v>226.8664402921493</v>
       </c>
       <c r="H16" t="n">
-        <v>67.31737384941511</v>
+        <v>122.6461522705384</v>
       </c>
       <c r="I16" t="n">
         <v>67.31737384941511</v>
@@ -5437,10 +5437,10 @@
         <v>153.6011667715474</v>
       </c>
       <c r="K16" t="n">
-        <v>398.7495101956205</v>
+        <v>398.7495101956203</v>
       </c>
       <c r="L16" t="n">
-        <v>756.4704691193131</v>
+        <v>756.4704691193132</v>
       </c>
       <c r="M16" t="n">
         <v>1141.788675194059</v>
@@ -5458,28 +5458,28 @@
         <v>2257.389089307298</v>
       </c>
       <c r="R16" t="n">
-        <v>2209.555530825357</v>
+        <v>2257.389089307298</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.866545412714</v>
+        <v>2107.700103894656</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.76559554</v>
+        <v>1927.930387224713</v>
       </c>
       <c r="U16" t="n">
-        <v>1707.659627426175</v>
+        <v>1680.824419110888</v>
       </c>
       <c r="V16" t="n">
-        <v>1494.972037980819</v>
+        <v>1468.136829665532</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.55176670439</v>
+        <v>1220.716558389103</v>
       </c>
       <c r="X16" t="n">
-        <v>1061.559114566904</v>
+        <v>1034.723906251617</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.763434183905</v>
+        <v>855.9282258686178</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2019.277999642225</v>
+        <v>1341.630390325797</v>
       </c>
       <c r="C17" t="n">
-        <v>1697.765115649887</v>
+        <v>1020.117506333459</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.94904999121</v>
+        <v>1019.32623278428</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.610430341039</v>
+        <v>680.9876131341088</v>
       </c>
       <c r="F17" t="n">
-        <v>685.0741584995047</v>
+        <v>317.4513412925746</v>
       </c>
       <c r="G17" t="n">
         <v>317.4513412925746</v>
@@ -5513,52 +5513,52 @@
         <v>67.31737384941511</v>
       </c>
       <c r="J17" t="n">
-        <v>295.6541182527939</v>
+        <v>256.1965048084405</v>
       </c>
       <c r="K17" t="n">
-        <v>629.4734919426403</v>
+        <v>590.0158784982868</v>
       </c>
       <c r="L17" t="n">
-        <v>1080.507705191049</v>
+        <v>1041.050091746695</v>
       </c>
       <c r="M17" t="n">
-        <v>1614.039609862973</v>
+        <v>1574.58199641862</v>
       </c>
       <c r="N17" t="n">
-        <v>2160.818426921755</v>
+        <v>2121.360813477402</v>
       </c>
       <c r="O17" t="n">
-        <v>2663.790897801092</v>
+        <v>2624.333284356739</v>
       </c>
       <c r="P17" t="n">
-        <v>3058.56526415827</v>
+        <v>3019.107650713917</v>
       </c>
       <c r="Q17" t="n">
-        <v>3306.851625913952</v>
+        <v>3267.394012469599</v>
       </c>
       <c r="R17" t="n">
         <v>3365.868692470755</v>
       </c>
       <c r="S17" t="n">
-        <v>3303.027656945923</v>
+        <v>3303.027656945924</v>
       </c>
       <c r="T17" t="n">
-        <v>3144.499542278218</v>
+        <v>3144.499542278219</v>
       </c>
       <c r="U17" t="n">
-        <v>3027.134031099019</v>
+        <v>2938.418698500129</v>
       </c>
       <c r="V17" t="n">
-        <v>3027.134031099019</v>
+        <v>2654.805444104632</v>
       </c>
       <c r="W17" t="n">
-        <v>3027.134031099019</v>
+        <v>2349.486421782591</v>
       </c>
       <c r="X17" t="n">
-        <v>2701.117905786012</v>
+        <v>2023.470296469584</v>
       </c>
       <c r="Y17" t="n">
-        <v>2358.428206758274</v>
+        <v>1680.780597441846</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>760.2715072225261</v>
+        <v>760.2715072225259</v>
       </c>
       <c r="C19" t="n">
-        <v>638.7849572426925</v>
+        <v>638.7849572426923</v>
       </c>
       <c r="D19" t="n">
-        <v>536.1179507784301</v>
+        <v>536.1179507784299</v>
       </c>
       <c r="E19" t="n">
-        <v>435.6544901441102</v>
+        <v>435.6544901441101</v>
       </c>
       <c r="F19" t="n">
-        <v>336.2141755942732</v>
+        <v>336.2141755942731</v>
       </c>
       <c r="G19" t="n">
-        <v>215.9609719170651</v>
+        <v>215.9609719170653</v>
       </c>
       <c r="H19" t="n">
-        <v>117.1934180829962</v>
+        <v>117.1934180829964</v>
       </c>
       <c r="I19" t="n">
         <v>67.31737384941511</v>
@@ -5674,13 +5674,13 @@
         <v>158.9453915487573</v>
       </c>
       <c r="K19" t="n">
-        <v>409.4379597500403</v>
+        <v>409.4379597500402</v>
       </c>
       <c r="L19" t="n">
         <v>772.5031434509431</v>
       </c>
       <c r="M19" t="n">
-        <v>1163.165574302898</v>
+        <v>1163.165574302899</v>
       </c>
       <c r="N19" t="n">
         <v>1551.07933626117</v>
@@ -5689,7 +5689,7 @@
         <v>1896.91432043399</v>
       </c>
       <c r="P19" t="n">
-        <v>2176.027206120056</v>
+        <v>2176.027206120055</v>
       </c>
       <c r="Q19" t="n">
         <v>2300.142887524977</v>
@@ -5701,7 +5701,7 @@
         <v>2113.525812005478</v>
       </c>
       <c r="T19" t="n">
-        <v>1939.208829523078</v>
+        <v>1939.208829523077</v>
       </c>
       <c r="U19" t="n">
         <v>1697.555595596794</v>
@@ -5716,7 +5716,7 @@
         <v>1067.813285300149</v>
       </c>
       <c r="Y19" t="n">
-        <v>894.4703391046926</v>
+        <v>894.4703391046922</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1625.243644721294</v>
+        <v>1625.243644721295</v>
       </c>
       <c r="C20" t="n">
-        <v>1447.631148206728</v>
+        <v>1303.730760728956</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.81508254805</v>
+        <v>992.9146950702793</v>
       </c>
       <c r="E20" t="n">
-        <v>798.4764628978795</v>
+        <v>654.5760754201083</v>
       </c>
       <c r="F20" t="n">
-        <v>434.9401910563453</v>
+        <v>654.5760754201083</v>
       </c>
       <c r="G20" t="n">
-        <v>67.31737384941511</v>
+        <v>286.9532582131781</v>
       </c>
       <c r="H20" t="n">
         <v>67.31737384941511</v>
@@ -5762,40 +5762,40 @@
         <v>1574.58199641862</v>
       </c>
       <c r="N20" t="n">
-        <v>2160.818426921755</v>
+        <v>2121.360813477402</v>
       </c>
       <c r="O20" t="n">
-        <v>2663.790897801092</v>
+        <v>2624.333284356739</v>
       </c>
       <c r="P20" t="n">
-        <v>3058.56526415827</v>
+        <v>3058.565264158271</v>
       </c>
       <c r="Q20" t="n">
-        <v>3306.851625913952</v>
+        <v>3306.851625913953</v>
       </c>
       <c r="R20" t="n">
         <v>3365.868692470755</v>
       </c>
       <c r="S20" t="n">
-        <v>3303.027656945923</v>
+        <v>3303.027656945924</v>
       </c>
       <c r="T20" t="n">
         <v>3144.499542278219</v>
       </c>
       <c r="U20" t="n">
-        <v>2938.418698500128</v>
+        <v>2938.418698500129</v>
       </c>
       <c r="V20" t="n">
-        <v>2938.418698500128</v>
+        <v>2938.418698500129</v>
       </c>
       <c r="W20" t="n">
         <v>2633.099676178088</v>
       </c>
       <c r="X20" t="n">
-        <v>2307.083550865081</v>
+        <v>2307.083550865082</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.393851837342</v>
+        <v>1964.393851837343</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.271507222526</v>
+        <v>760.2715072225259</v>
       </c>
       <c r="C22" t="n">
-        <v>638.7849572426924</v>
+        <v>638.7849572426923</v>
       </c>
       <c r="D22" t="n">
-        <v>536.11795077843</v>
+        <v>536.1179507784299</v>
       </c>
       <c r="E22" t="n">
-        <v>435.6544901441102</v>
+        <v>435.6544901441101</v>
       </c>
       <c r="F22" t="n">
         <v>336.2141755942731</v>
       </c>
       <c r="G22" t="n">
-        <v>215.9609719170654</v>
+        <v>215.9609719170653</v>
       </c>
       <c r="H22" t="n">
-        <v>117.1934180829965</v>
+        <v>117.1934180829964</v>
       </c>
       <c r="I22" t="n">
         <v>67.31737384941511</v>
@@ -5914,19 +5914,19 @@
         <v>409.4379597500402</v>
       </c>
       <c r="L22" t="n">
-        <v>772.503143450943</v>
+        <v>772.5031434509426</v>
       </c>
       <c r="M22" t="n">
         <v>1163.165574302898</v>
       </c>
       <c r="N22" t="n">
-        <v>1551.07933626117</v>
+        <v>1551.079336261169</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.91432043399</v>
+        <v>1896.914320433989</v>
       </c>
       <c r="P22" t="n">
-        <v>2176.027206120056</v>
+        <v>2176.027206120055</v>
       </c>
       <c r="Q22" t="n">
         <v>2300.142887524977</v>
@@ -5953,7 +5953,7 @@
         <v>1067.813285300149</v>
       </c>
       <c r="Y22" t="n">
-        <v>894.4703391046924</v>
+        <v>894.4703391046922</v>
       </c>
     </row>
     <row r="23">
@@ -5978,55 +5978,55 @@
         <v>698.9037015467796</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K23" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M23" t="n">
-        <v>1986.93604113691</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N23" t="n">
-        <v>2533.714858195692</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O23" t="n">
-        <v>3036.687329075029</v>
+        <v>3071.136282571877</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521975</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
         <v>2714.947448833287</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
         <v>327.0192030246656</v>
@@ -6060,19 +6060,19 @@
         <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803187</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415472</v>
@@ -6139,22 +6139,22 @@
         <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6175,7 +6175,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U25" t="n">
         <v>1711.385138644068</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2045.209383194912</v>
+        <v>2045.209383194913</v>
       </c>
       <c r="C26" t="n">
-        <v>1721.771206394894</v>
+        <v>1721.771206394895</v>
       </c>
       <c r="D26" t="n">
-        <v>1409.029847928538</v>
+        <v>1409.029847928539</v>
       </c>
       <c r="E26" t="n">
         <v>1068.765935470688</v>
       </c>
       <c r="F26" t="n">
-        <v>703.3043708214742</v>
+        <v>703.304370821475</v>
       </c>
       <c r="G26" t="n">
-        <v>333.7562608068649</v>
+        <v>333.7562608068648</v>
       </c>
       <c r="H26" t="n">
         <v>81.69700055602608</v>
@@ -6230,13 +6230,13 @@
         <v>604.3955052048979</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.914320858252</v>
+        <v>1422.49686107148</v>
       </c>
       <c r="M26" t="n">
-        <v>2002.446225530176</v>
+        <v>1956.028765743405</v>
       </c>
       <c r="N26" t="n">
-        <v>2879.799762252305</v>
+        <v>2502.807582802187</v>
       </c>
       <c r="O26" t="n">
         <v>3382.772233131642</v>
@@ -6257,16 +6257,16 @@
         <v>3859.63029199341</v>
       </c>
       <c r="U26" t="n">
-        <v>3651.62415540764</v>
+        <v>3651.624155407641</v>
       </c>
       <c r="V26" t="n">
-        <v>3366.085608204463</v>
+        <v>3366.085608204464</v>
       </c>
       <c r="W26" t="n">
-        <v>3058.841293074743</v>
+        <v>3058.841293074744</v>
       </c>
       <c r="X26" t="n">
-        <v>2730.899874954057</v>
+        <v>2730.899874954058</v>
       </c>
       <c r="Y26" t="n">
         <v>2386.28488311864</v>
@@ -6303,7 +6303,7 @@
         <v>81.69700055602608</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3742700466433</v>
+        <v>175.3742700466436</v>
       </c>
       <c r="K27" t="n">
         <v>413.6384690269907</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>742.2276628135714</v>
+        <v>742.2276628135724</v>
       </c>
       <c r="C28" t="n">
-        <v>618.8158200260586</v>
+        <v>618.8158200260596</v>
       </c>
       <c r="D28" t="n">
-        <v>514.223520754117</v>
+        <v>514.2235207541179</v>
       </c>
       <c r="E28" t="n">
-        <v>411.8347673121179</v>
+        <v>411.8347673121189</v>
       </c>
       <c r="F28" t="n">
-        <v>310.4691599546017</v>
+        <v>310.4691599546026</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2906634697147</v>
+        <v>188.2906634697156</v>
       </c>
       <c r="H28" t="n">
-        <v>87.5978168279665</v>
+        <v>87.59781682796735</v>
       </c>
       <c r="I28" t="n">
         <v>81.69700055602608</v>
@@ -6385,28 +6385,28 @@
         <v>171.4380387745618</v>
       </c>
       <c r="K28" t="n">
-        <v>420.0436274950383</v>
+        <v>420.0436274950384</v>
       </c>
       <c r="L28" t="n">
-        <v>781.2218317151346</v>
+        <v>781.2218317151347</v>
       </c>
       <c r="M28" t="n">
-        <v>1169.997283086283</v>
+        <v>1169.997283086284</v>
       </c>
       <c r="N28" t="n">
-        <v>1556.024065563748</v>
+        <v>1556.024065563749</v>
       </c>
       <c r="O28" t="n">
         <v>1899.972070255762</v>
       </c>
       <c r="P28" t="n">
-        <v>2177.197976461021</v>
+        <v>2177.197976461022</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.426678385136</v>
+        <v>2299.426678385137</v>
       </c>
       <c r="R28" t="n">
-        <v>2255.120561283058</v>
+        <v>2255.120561283059</v>
       </c>
       <c r="S28" t="n">
         <v>2108.959017250279</v>
@@ -6415,19 +6415,19 @@
         <v>1932.716741960199</v>
       </c>
       <c r="U28" t="n">
-        <v>1689.138215226236</v>
+        <v>1689.138215226237</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.978067160743</v>
+        <v>1479.978067160744</v>
       </c>
       <c r="W28" t="n">
         <v>1236.085237264177</v>
       </c>
       <c r="X28" t="n">
-        <v>1053.620026506553</v>
+        <v>1053.620026506554</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3517875034171</v>
+        <v>878.351787503418</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2045.209383194913</v>
+        <v>2045.209383194912</v>
       </c>
       <c r="C29" t="n">
-        <v>1721.771206394895</v>
+        <v>1721.771206394894</v>
       </c>
       <c r="D29" t="n">
-        <v>1409.029847928539</v>
+        <v>1409.029847928538</v>
       </c>
       <c r="E29" t="n">
-        <v>1068.765935470689</v>
+        <v>1068.765935470688</v>
       </c>
       <c r="F29" t="n">
-        <v>703.3043708214751</v>
+        <v>703.3043708214745</v>
       </c>
       <c r="G29" t="n">
         <v>333.7562608068648</v>
       </c>
       <c r="H29" t="n">
-        <v>81.6970005560261</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="I29" t="n">
-        <v>81.6970005560261</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J29" t="n">
         <v>270.5761315150515</v>
@@ -6467,46 +6467,46 @@
         <v>604.3955052048979</v>
       </c>
       <c r="L29" t="n">
-        <v>1055.429718453307</v>
+        <v>1468.914320858252</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.980021283135</v>
+        <v>2002.446225530176</v>
       </c>
       <c r="N29" t="n">
-        <v>2669.607921499</v>
+        <v>2549.225042588959</v>
       </c>
       <c r="O29" t="n">
-        <v>3172.580392378336</v>
+        <v>3052.197513468296</v>
       </c>
       <c r="P29" t="n">
-        <v>3567.354758735514</v>
+        <v>3765.552600915241</v>
       </c>
       <c r="Q29" t="n">
-        <v>4025.832961244502</v>
+        <v>4013.838962670924</v>
       </c>
       <c r="R29" t="n">
-        <v>4084.850027801305</v>
+        <v>4084.850027801304</v>
       </c>
       <c r="S29" t="n">
-        <v>4020.083699468794</v>
+        <v>4020.083699468793</v>
       </c>
       <c r="T29" t="n">
         <v>3859.63029199341</v>
       </c>
       <c r="U29" t="n">
-        <v>3651.624155407641</v>
+        <v>3651.62415540764</v>
       </c>
       <c r="V29" t="n">
-        <v>3366.085608204464</v>
+        <v>3366.085608204463</v>
       </c>
       <c r="W29" t="n">
-        <v>3058.841293074744</v>
+        <v>3058.841293074743</v>
       </c>
       <c r="X29" t="n">
-        <v>2730.899874954058</v>
+        <v>2730.899874954057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2386.284883118641</v>
+        <v>2386.28488311864</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.7287386049514</v>
+        <v>956.7287386049512</v>
       </c>
       <c r="C30" t="n">
-        <v>782.2757093238245</v>
+        <v>782.2757093238242</v>
       </c>
       <c r="D30" t="n">
-        <v>633.3412996625732</v>
+        <v>633.341299662573</v>
       </c>
       <c r="E30" t="n">
-        <v>474.1038446571176</v>
+        <v>474.1038446571175</v>
       </c>
       <c r="F30" t="n">
-        <v>327.5692866840026</v>
+        <v>327.5692866840025</v>
       </c>
       <c r="G30" t="n">
-        <v>191.2061865166207</v>
+        <v>191.2061865166206</v>
       </c>
       <c r="H30" t="n">
-        <v>100.7042921544882</v>
+        <v>100.7042921544881</v>
       </c>
       <c r="I30" t="n">
-        <v>81.6970005560261</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3742700466434</v>
+        <v>175.3742700466433</v>
       </c>
       <c r="K30" t="n">
-        <v>413.6384690269905</v>
+        <v>413.6384690269907</v>
       </c>
       <c r="L30" t="n">
-        <v>780.3366293396568</v>
+        <v>780.3366293396559</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.612954561973</v>
+        <v>1227.612954561972</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.135998116427</v>
+        <v>1701.135998116426</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.097277534482</v>
+        <v>2112.097277534481</v>
       </c>
       <c r="P30" t="n">
         <v>2422.596869010584</v>
       </c>
       <c r="Q30" t="n">
-        <v>2580.238426657184</v>
+        <v>2580.238426657183</v>
       </c>
       <c r="R30" t="n">
         <v>2580.094073249699</v>
@@ -6570,13 +6570,13 @@
         <v>2450.656186743179</v>
       </c>
       <c r="T30" t="n">
-        <v>2258.013186421035</v>
+        <v>2258.013186421034</v>
       </c>
       <c r="U30" t="n">
         <v>2029.94533955545</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.793231323708</v>
+        <v>1794.793231323707</v>
       </c>
       <c r="W30" t="n">
         <v>1540.555874595506</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.1281835828918</v>
+        <v>742.2276628135728</v>
       </c>
       <c r="C31" t="n">
-        <v>664.7163407953789</v>
+        <v>618.81582002606</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1240415234372</v>
+        <v>514.2235207541183</v>
       </c>
       <c r="E31" t="n">
-        <v>457.7352880814382</v>
+        <v>411.8347673121193</v>
       </c>
       <c r="F31" t="n">
-        <v>356.3696807239219</v>
+        <v>310.469159954603</v>
       </c>
       <c r="G31" t="n">
-        <v>234.1911842390349</v>
+        <v>234.1911842390348</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4983375972867</v>
+        <v>133.4983375972866</v>
       </c>
       <c r="I31" t="n">
-        <v>81.6970005560261</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J31" t="n">
-        <v>171.4380387745618</v>
+        <v>171.4380387745619</v>
       </c>
       <c r="K31" t="n">
         <v>420.0436274950384</v>
       </c>
       <c r="L31" t="n">
-        <v>781.2218317151346</v>
+        <v>781.2218317151348</v>
       </c>
       <c r="M31" t="n">
         <v>1169.997283086284</v>
@@ -6634,10 +6634,10 @@
         <v>1556.024065563749</v>
       </c>
       <c r="O31" t="n">
-        <v>1899.972070255762</v>
+        <v>1899.972070255763</v>
       </c>
       <c r="P31" t="n">
-        <v>2177.197976461021</v>
+        <v>2177.197976461022</v>
       </c>
       <c r="Q31" t="n">
         <v>2299.426678385137</v>
@@ -6646,25 +6646,25 @@
         <v>2255.120561283059</v>
       </c>
       <c r="S31" t="n">
-        <v>2154.859538019598</v>
+        <v>2108.959017250279</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.617262729519</v>
+        <v>1932.716741960199</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.038735995556</v>
+        <v>1689.138215226237</v>
       </c>
       <c r="V31" t="n">
-        <v>1525.878587930063</v>
+        <v>1479.978067160744</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.985758033497</v>
+        <v>1236.085237264178</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.520547275873</v>
+        <v>1053.620026506554</v>
       </c>
       <c r="Y31" t="n">
-        <v>924.2523082727374</v>
+        <v>878.3517875034184</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,25 +6701,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,22 +6728,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6841,13 +6841,13 @@
         <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6871,10 +6871,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6923,43 +6923,43 @@
         <v>1062.439973388315</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1909.315497911347</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.303399835341</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7026,7 +7026,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467782</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>393.2994530991713</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455608</v>
+        <v>727.1188267890177</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.879634793969</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M38" t="n">
-        <v>1609.94386168679</v>
+        <v>1711.684944709351</v>
       </c>
       <c r="N38" t="n">
-        <v>2156.722678745572</v>
+        <v>2258.463761768133</v>
       </c>
       <c r="O38" t="n">
-        <v>3036.687329075027</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,16 +7327,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1706.925601880499</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>2240.457506552423</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611206</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490542</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="42">
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572845</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.154208495152</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T42" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U42" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V42" t="n">
         <v>1794.243147664371</v>
@@ -7530,10 +7530,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7594,13 +7594,13 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386254</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7655,19 +7655,19 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N44" t="n">
-        <v>2135.190356524676</v>
+        <v>2468.655602521439</v>
       </c>
       <c r="O44" t="n">
-        <v>3015.155006854131</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P44" t="n">
-        <v>3728.510094301076</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7691,7 +7691,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7731,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668918</v>
@@ -7834,19 +7834,19 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519666</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.5591279758741</v>
+        <v>215.4351737175858</v>
       </c>
       <c r="L8" t="n">
-        <v>221.4615333864804</v>
+        <v>228.3375791281921</v>
       </c>
       <c r="M8" t="n">
-        <v>221.3053419517325</v>
+        <v>214.4292962100213</v>
       </c>
       <c r="N8" t="n">
-        <v>220.1146196394662</v>
+        <v>220.1146196394665</v>
       </c>
       <c r="O8" t="n">
-        <v>221.7011451953162</v>
+        <v>214.825099453605</v>
       </c>
       <c r="P8" t="n">
-        <v>224.7959737581887</v>
+        <v>224.7959737581889</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>122.2553668301605</v>
       </c>
       <c r="K9" t="n">
-        <v>136.6078527739046</v>
+        <v>130.0096270621615</v>
       </c>
       <c r="L9" t="n">
-        <v>128.0235421583041</v>
+        <v>134.8995879000157</v>
       </c>
       <c r="M9" t="n">
-        <v>136.7210888668789</v>
+        <v>136.7210888668791</v>
       </c>
       <c r="N9" t="n">
-        <v>125.6035140088346</v>
+        <v>118.7274682671234</v>
       </c>
       <c r="O9" t="n">
-        <v>137.9327214868869</v>
+        <v>137.6549014569189</v>
       </c>
       <c r="P9" t="n">
-        <v>124.7128861868195</v>
+        <v>131.5889319285311</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.7906924147121</v>
+        <v>133.7906924147122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>135.7154774601072</v>
+        <v>135.7154774601073</v>
       </c>
       <c r="M10" t="n">
-        <v>136.9537733942622</v>
+        <v>139.4279669036316</v>
       </c>
       <c r="N10" t="n">
-        <v>128.3392836320193</v>
+        <v>128.3392836320195</v>
       </c>
       <c r="O10" t="n">
-        <v>139.5852769621078</v>
+        <v>137.1110834527388</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.8561751963166</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>39.85617519631694</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.8561751963166</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>39.85617519631693</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,13 +9410,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>39.8561751963166</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39.85617519631671</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>402.550001687895</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>74.68679478748703</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>370.7748915335091</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>333.9138582458044</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>89.74654864351749</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>12.11515007432149</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>187.8883066283073</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0017854473931</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>277.2206841544154</v>
       </c>
       <c r="N35" t="n">
-        <v>19.40311602546683</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5185911550068</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>21.74982042514807</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>334.4868774152288</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>343.5485285966308</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>336.8335818149117</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.74982042514918</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.336044107225829</v>
+        <v>8.336044107225831</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>79.05303851316732</v>
       </c>
       <c r="F11" t="n">
         <v>365.2991159687854</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805274</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.8651545231935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>73.92207912925578</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.51948462477326</v>
+        <v>54.7754906369121</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>40.79347279447502</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>286.1753286972089</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>297.9296599986943</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.34234686904604</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691212</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>73.92207912925548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>306.9245441884031</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>87.82817927290219</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>142.4613836029938</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>30.1931022486026</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>45.44151556162699</v>
+        <v>45.44151556162611</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>45.44151556162554</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>45.44151556162622</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952822.3486434775</v>
+        <v>952822.3486434774</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957819.5138967829</v>
+        <v>957819.513896783</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>969200.1431257816</v>
+        <v>969200.1431257817</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585193</v>
+        <v>409638.1693585191</v>
       </c>
       <c r="C2" t="n">
         <v>409638.1693585193</v>
@@ -26320,40 +26320,40 @@
         <v>410189.110376674</v>
       </c>
       <c r="E2" t="n">
-        <v>377713.253253322</v>
+        <v>377713.2532533219</v>
       </c>
       <c r="F2" t="n">
         <v>379267.9621382562</v>
       </c>
       <c r="G2" t="n">
-        <v>383820.2138298558</v>
+        <v>383820.2138298559</v>
       </c>
       <c r="H2" t="n">
         <v>383820.2138298559</v>
       </c>
       <c r="I2" t="n">
-        <v>410520.8849321409</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="J2" t="n">
-        <v>409975.5867454025</v>
+        <v>409975.5867454024</v>
       </c>
       <c r="K2" t="n">
         <v>409975.5867454025</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>410520.8849321415</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410520.8849321409</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321409</v>
+        <v>410520.8849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21446.84877552628</v>
+        <v>21446.84877552592</v>
       </c>
       <c r="E3" t="n">
         <v>1136860.943687869</v>
       </c>
       <c r="F3" t="n">
-        <v>2884.089834121645</v>
+        <v>2884.089834121711</v>
       </c>
       <c r="G3" t="n">
-        <v>4318.565476533251</v>
+        <v>4318.565476533263</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45969.57395842717</v>
+        <v>45969.57395842705</v>
       </c>
       <c r="J3" t="n">
-        <v>33535.78802670312</v>
+        <v>33535.78802670322</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>205475.0301890554</v>
       </c>
       <c r="N3" t="n">
-        <v>2465.366042878818</v>
+        <v>2465.366042878957</v>
       </c>
       <c r="O3" t="n">
         <v>31736.71191465884</v>
@@ -26421,40 +26421,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>414436.6827141398</v>
+        <v>414436.6827141399</v>
       </c>
       <c r="E4" t="n">
         <v>51175.84772599985</v>
       </c>
       <c r="F4" t="n">
-        <v>52290.99959428766</v>
+        <v>52290.99959428768</v>
       </c>
       <c r="G4" t="n">
-        <v>57500.87738684944</v>
+        <v>57500.87738684946</v>
       </c>
       <c r="H4" t="n">
-        <v>57500.87738684945</v>
+        <v>57500.87738684946</v>
       </c>
       <c r="I4" t="n">
+        <v>76652.56781120108</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75574.80188343367</v>
+      </c>
+      <c r="K4" t="n">
+        <v>75574.80188343367</v>
+      </c>
+      <c r="L4" t="n">
         <v>76652.56781120109</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75574.80188343365</v>
-      </c>
-      <c r="K4" t="n">
-        <v>75574.80188343365</v>
-      </c>
-      <c r="L4" t="n">
-        <v>76652.56781120106</v>
       </c>
       <c r="M4" t="n">
         <v>76652.56781120106</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120104</v>
+        <v>76652.56781120109</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120104</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="P4" t="n">
         <v>76652.56781120106</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34537.22321297009</v>
+        <v>34537.22321297008</v>
       </c>
       <c r="E5" t="n">
         <v>77801.67147047339</v>
@@ -26488,7 +26488,7 @@
         <v>78867.48895887783</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
         <v>89635.76638926388</v>
@@ -26497,16 +26497,16 @@
         <v>89635.76638926388</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44137.199531012</v>
+        <v>-44141.61310888024</v>
       </c>
       <c r="C6" t="n">
-        <v>-44137.199531012</v>
+        <v>-44141.61310888012</v>
       </c>
       <c r="D6" t="n">
-        <v>-60231.64432596207</v>
+        <v>-60233.30319873923</v>
       </c>
       <c r="E6" t="n">
-        <v>-888125.2096310197</v>
+        <v>-888289.2477894143</v>
       </c>
       <c r="F6" t="n">
-        <v>245679.2056022774</v>
+        <v>245522.940988308</v>
       </c>
       <c r="G6" t="n">
-        <v>243133.2820075953</v>
+        <v>242999.7786520839</v>
       </c>
       <c r="H6" t="n">
-        <v>247451.8474841286</v>
+        <v>247318.3441286171</v>
       </c>
       <c r="I6" t="n">
-        <v>198520.8014877065</v>
+        <v>198520.8014877072</v>
       </c>
       <c r="J6" t="n">
-        <v>211229.2304460019</v>
+        <v>211226.503955068</v>
       </c>
       <c r="K6" t="n">
-        <v>244765.0184727049</v>
+        <v>244762.2919817712</v>
       </c>
       <c r="L6" t="n">
-        <v>238646.9780659192</v>
+        <v>238646.9780659191</v>
       </c>
       <c r="M6" t="n">
-        <v>39015.34525707894</v>
+        <v>39015.34525707903</v>
       </c>
       <c r="N6" t="n">
-        <v>242025.009403255</v>
+        <v>242025.0094032553</v>
       </c>
       <c r="O6" t="n">
         <v>212753.6635314756</v>
       </c>
       <c r="P6" t="n">
-        <v>244490.3754461337</v>
+        <v>244490.3754461344</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>41.576929772926</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J2" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="K2" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.54860696669888</v>
+        <v>22.54860696669846</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
-        <v>841.4671731176887</v>
+        <v>841.4671731176888</v>
       </c>
       <c r="G4" t="n">
-        <v>841.4671731176887</v>
+        <v>841.4671731176888</v>
       </c>
       <c r="H4" t="n">
-        <v>841.4671731176887</v>
+        <v>841.4671731176888</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26823,10 +26823,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208615</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.398206845666564</v>
+        <v>5.398206845666579</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.67088989332354</v>
+        <v>39.67088989332356</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.54860696669888</v>
+        <v>22.54860696669846</v>
       </c>
       <c r="E3" t="n">
-        <v>1067.228093626599</v>
+        <v>1067.2280936266</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605809</v>
       </c>
       <c r="F4" t="n">
-        <v>10.06571771539632</v>
+        <v>10.06571771539654</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>172.8692880909261</v>
+        <v>172.8692880909257</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711209</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605809</v>
+        <v>824.5254096605807</v>
       </c>
       <c r="N4" t="n">
-        <v>10.06571771539609</v>
+        <v>10.06571771539666</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398206845666564</v>
+        <v>5.398206845666579</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.67088989332354</v>
+        <v>39.67088989332356</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.525409660581</v>
+        <v>824.5254096605809</v>
       </c>
       <c r="N4" t="n">
-        <v>10.06571771539632</v>
+        <v>10.06571771539654</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.8739489829624</v>
+        <v>375.0543243305503</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>338.5464567043191</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9811954193158</v>
+        <v>206.9811954193159</v>
       </c>
       <c r="J8" t="n">
-        <v>4.25568199565831</v>
+        <v>4.255681995658453</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2017710514288122</v>
+        <v>0.2017710514289934</v>
       </c>
       <c r="R8" t="n">
-        <v>144.1749714793531</v>
+        <v>144.1749714793532</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9544358927633</v>
+        <v>206.9544358927634</v>
       </c>
       <c r="T8" t="n">
         <v>222.6990394053506</v>
       </c>
       <c r="U8" t="n">
-        <v>244.4623553528292</v>
+        <v>251.3384010945407</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>380.1815175667542</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4189706442501</v>
+        <v>137.2950163859615</v>
       </c>
       <c r="H9" t="n">
         <v>111.7670288351694</v>
       </c>
       <c r="I9" t="n">
-        <v>80.85071385792453</v>
+        <v>87.726759599636</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.14653150905266</v>
+        <v>90.27048576734128</v>
       </c>
       <c r="S9" t="n">
-        <v>170.782290438706</v>
+        <v>163.9062446969946</v>
       </c>
       <c r="T9" t="n">
         <v>199.9692365268745</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381912403663</v>
+        <v>219.8817701510669</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>199.7165641141781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="10">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,16 +28026,16 @@
         <v>167.9503179360598</v>
       </c>
       <c r="H10" t="n">
-        <v>154.9896097556719</v>
+        <v>161.8656554973833</v>
       </c>
       <c r="I10" t="n">
         <v>154.2276750609331</v>
       </c>
       <c r="J10" t="n">
-        <v>90.48441755306594</v>
+        <v>90.484417553066</v>
       </c>
       <c r="K10" t="n">
-        <v>17.54537384171217</v>
+        <v>17.54537384171226</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.88115785801142</v>
+        <v>82.75720359972291</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4651059663942</v>
+        <v>169.4086848770948</v>
       </c>
       <c r="S10" t="n">
-        <v>216.4319345976352</v>
+        <v>223.3079803393467</v>
       </c>
       <c r="T10" t="n">
-        <v>221.7154331705501</v>
+        <v>227.7718542598496</v>
       </c>
       <c r="U10" t="n">
         <v>286.3168114607237</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="C26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="D26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="E26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="F26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="G26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="H26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="T26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="U26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="V26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="W26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="X26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="C28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="D28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="E28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="F28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="G28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="H28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="J28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="K28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="L28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="M28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="N28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="O28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="P28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="R28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="S28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="T28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="U28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="V28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="W28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="X28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="C29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="D29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="E29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="F29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="G29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="H29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="T29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="U29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="V29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="W29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="X29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="C31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="D31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="E31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="F31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="G31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="H31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="J31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="K31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="L31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="M31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="N31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="O31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="P31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="R31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="S31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="T31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="U31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="V31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="W31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="X31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.0690967389901</v>
+        <v>45.06909673899014</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
         <v>46.97513661859256</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09064766619778436</v>
+        <v>0.09064766619778268</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9283454114480594</v>
+        <v>0.9283454114480421</v>
       </c>
       <c r="I8" t="n">
-        <v>3.494694151090085</v>
+        <v>3.49469415109002</v>
       </c>
       <c r="J8" t="n">
-        <v>7.693607358954208</v>
+        <v>7.693607358954065</v>
       </c>
       <c r="K8" t="n">
-        <v>11.53072306910642</v>
+        <v>11.53072306910621</v>
       </c>
       <c r="L8" t="n">
-        <v>14.30488158350687</v>
+        <v>14.3048815835066</v>
       </c>
       <c r="M8" t="n">
-        <v>15.91693701725172</v>
+        <v>15.91693701725142</v>
       </c>
       <c r="N8" t="n">
-        <v>16.17448969883617</v>
+        <v>16.17448969883587</v>
       </c>
       <c r="O8" t="n">
-        <v>15.27311196808195</v>
+        <v>15.27311196808167</v>
       </c>
       <c r="P8" t="n">
-        <v>13.03524770882415</v>
+        <v>13.03524770882391</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.788928163115992</v>
+        <v>9.788928163115811</v>
       </c>
       <c r="R8" t="n">
-        <v>5.694146461796577</v>
+        <v>5.694146461796471</v>
       </c>
       <c r="S8" t="n">
-        <v>2.065633693482013</v>
+        <v>2.065633693481975</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3968101587808012</v>
+        <v>0.3968101587807938</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007251813295822748</v>
+        <v>0.007251813295822612</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04850077724912589</v>
+        <v>0.04850077724912499</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4684154013270843</v>
+        <v>0.4684154013270756</v>
       </c>
       <c r="I9" t="n">
-        <v>1.669873251779115</v>
+        <v>1.669873251779084</v>
       </c>
       <c r="J9" t="n">
-        <v>4.582259836506232</v>
+        <v>4.582259836506147</v>
       </c>
       <c r="K9" t="n">
-        <v>7.831811912197666</v>
+        <v>7.83181191219752</v>
       </c>
       <c r="L9" t="n">
-        <v>10.53083762157008</v>
+        <v>10.53083762156988</v>
       </c>
       <c r="M9" t="n">
-        <v>12.28899079685089</v>
+        <v>12.28899079685066</v>
       </c>
       <c r="N9" t="n">
-        <v>12.61424381621016</v>
+        <v>12.61424381620992</v>
       </c>
       <c r="O9" t="n">
-        <v>11.539568699269</v>
+        <v>11.53956869926878</v>
       </c>
       <c r="P9" t="n">
-        <v>9.261521227510714</v>
+        <v>9.261521227510544</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.191081671309473</v>
+        <v>6.191081671309359</v>
       </c>
       <c r="R9" t="n">
-        <v>3.011302643590466</v>
+        <v>3.01130264359041</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9008806651317894</v>
+        <v>0.9008806651317727</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1954921679471345</v>
+        <v>0.1954921679471309</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003190840608495125</v>
+        <v>0.003190840608495066</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04066142239896518</v>
+        <v>0.04066142239896443</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3615170100562544</v>
+        <v>0.3615170100562476</v>
       </c>
       <c r="I10" t="n">
-        <v>1.222799866325244</v>
+        <v>1.222799866325222</v>
       </c>
       <c r="J10" t="n">
-        <v>2.874762563606838</v>
+        <v>2.874762563606785</v>
       </c>
       <c r="K10" t="n">
-        <v>4.724117984170682</v>
+        <v>4.724117984170594</v>
       </c>
       <c r="L10" t="n">
-        <v>6.045244562842516</v>
+        <v>6.045244562842403</v>
       </c>
       <c r="M10" t="n">
-        <v>6.37386278568506</v>
+        <v>6.373862785684941</v>
       </c>
       <c r="N10" t="n">
-        <v>6.222306574925286</v>
+        <v>6.22230657492517</v>
       </c>
       <c r="O10" t="n">
-        <v>5.747307231446463</v>
+        <v>5.747307231446356</v>
       </c>
       <c r="P10" t="n">
-        <v>4.917814214507569</v>
+        <v>4.917814214507477</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.40483965197153</v>
+        <v>3.404839651971467</v>
       </c>
       <c r="R10" t="n">
-        <v>1.828285410775289</v>
+        <v>1.828285410775255</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7086176976256021</v>
+        <v>0.7086176976255889</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1737351684319421</v>
+        <v>0.1737351684319389</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002217895767216285</v>
+        <v>0.002217895767216244</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31856,7 +31856,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987486</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32324,13 +32324,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.461131202644</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33263,10 +33263,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138806</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33746,10 +33746,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33986,7 +33986,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,10 +34451,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>6.598225711743297</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="P9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>4.401852232342238</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>4.401852232342332</v>
       </c>
       <c r="P10" t="n">
-        <v>2.196373479401057</v>
+        <v>2.196373479400966</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35504,7 +35504,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127271</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>592.1580106092279</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>547.9091760845359</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>247.6245893172455</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431241</v>
       </c>
       <c r="M16" t="n">
         <v>389.2103091664098</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>230.6431761650291</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>99.46937373854165</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36057,7 +36057,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637025</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36130,13 +36130,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>592.1580106092279</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>438.6181614156883</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887903</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412326</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
         <v>281.9322077637029</v>
@@ -36364,19 +36364,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>941.4711175181216</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>473.4487810068587</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36598,16 +36598,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>826.365005925841</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>886.2156936587156</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597726</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>90.64751335205631</v>
+        <v>90.64751335205634</v>
       </c>
       <c r="K28" t="n">
-        <v>251.1167562833096</v>
+        <v>251.1167562833097</v>
       </c>
       <c r="L28" t="n">
         <v>364.8264689091882</v>
@@ -36762,16 +36762,16 @@
         <v>392.7024761324739</v>
       </c>
       <c r="N28" t="n">
-        <v>389.9260429065301</v>
+        <v>389.9260429065302</v>
       </c>
       <c r="O28" t="n">
-        <v>347.4222269616298</v>
+        <v>347.4222269616299</v>
       </c>
       <c r="P28" t="n">
         <v>280.0261678841005</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.4633352768837</v>
+        <v>123.4633352768838</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>642.0483840564287</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>71.72834861654621</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340064</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>90.64751335205631</v>
+        <v>90.64751335205634</v>
       </c>
       <c r="K31" t="n">
-        <v>251.1167562833096</v>
+        <v>251.1167562833097</v>
       </c>
       <c r="L31" t="n">
         <v>364.8264689091882</v>
@@ -37002,13 +37002,13 @@
         <v>389.9260429065301</v>
       </c>
       <c r="O31" t="n">
-        <v>347.4222269616298</v>
+        <v>347.4222269616299</v>
       </c>
       <c r="P31" t="n">
         <v>280.0261678841005</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.4633352768837</v>
+        <v>123.4633352768838</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>740.1901420412186</v>
       </c>
       <c r="O32" t="n">
-        <v>795.0547863356121</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>816.1417999846419</v>
       </c>
       <c r="N35" t="n">
-        <v>571.7049514383781</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>315.3055921237194</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37549,22 +37549,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>560.6709362553746</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37634,7 +37634,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>790.0769918075607</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>895.8503640095423</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38023,22 +38023,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>875.7546976451382</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>272.5441252288686</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
